--- a/data/trans_orig/P80_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P80_R-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>16013</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6167</v>
+        <v>6431</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33426</v>
+        <v>34501</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03926661847823085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01512301390687994</v>
+        <v>0.01577090062213706</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08196789888334542</v>
+        <v>0.08460534762162318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -762,19 +762,19 @@
         <v>13029</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5967</v>
+        <v>6310</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25062</v>
+        <v>24467</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03594101493793907</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01646127484222473</v>
+        <v>0.01740696112629628</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06913378397204065</v>
+        <v>0.06749298491586979</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -783,19 +783,19 @@
         <v>29042</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16126</v>
+        <v>16605</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48043</v>
+        <v>47493</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03770156171699849</v>
+        <v>0.03770156171699848</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.020934972550682</v>
+        <v>0.02155657636090954</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06236913628464223</v>
+        <v>0.06165488974342095</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>391780</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>374367</v>
+        <v>373292</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>401626</v>
+        <v>401362</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9607333815217692</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9180321011166549</v>
+        <v>0.9153946523783767</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9848769860931199</v>
+        <v>0.9842290993778628</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>199</v>
@@ -833,19 +833,19 @@
         <v>349483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337450</v>
+        <v>338045</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>356545</v>
+        <v>356202</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.964058985062061</v>
+        <v>0.9640589850620608</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9308662160279593</v>
+        <v>0.9325070150841301</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9835387251577753</v>
+        <v>0.9825930388737038</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>365</v>
@@ -854,19 +854,19 @@
         <v>741263</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>722262</v>
+        <v>722812</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>754179</v>
+        <v>753700</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9622984382830017</v>
+        <v>0.9622984382830015</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9376308637153576</v>
+        <v>0.9383451102565791</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.979065027449318</v>
+        <v>0.9784434236390904</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>19354</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10863</v>
+        <v>10693</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36179</v>
+        <v>33168</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04058352280736269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.022778094936481</v>
+        <v>0.02242262584749763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07586356503563624</v>
+        <v>0.06955017687182376</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -979,19 +979,19 @@
         <v>8439</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3809</v>
+        <v>3753</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17151</v>
+        <v>16454</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01687677400605815</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007618374470261233</v>
+        <v>0.007505471978691815</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03430065474553791</v>
+        <v>0.03290736721981753</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -1000,19 +1000,19 @@
         <v>27793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16491</v>
+        <v>17547</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42198</v>
+        <v>42295</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02844946101075314</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01688056398229935</v>
+        <v>0.01796199721385218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04319544508330198</v>
+        <v>0.04329443135253908</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>457536</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>440711</v>
+        <v>443722</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>466027</v>
+        <v>466197</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9594164771926372</v>
+        <v>0.9594164771926373</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9241364349643636</v>
+        <v>0.9304498231281764</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.977221905063519</v>
+        <v>0.9775773741525022</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>451</v>
@@ -1050,19 +1050,19 @@
         <v>491584</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>482872</v>
+        <v>483569</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496214</v>
+        <v>496270</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9831232259939419</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.965699345254462</v>
+        <v>0.9670926327801822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9923816255297387</v>
+        <v>0.9924945280213082</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>741</v>
@@ -1071,19 +1071,19 @@
         <v>949121</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>934716</v>
+        <v>934619</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>960423</v>
+        <v>959367</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9715505389892468</v>
+        <v>0.9715505389892469</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9568045549166979</v>
+        <v>0.9567055686474604</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9831194360177006</v>
+        <v>0.9820380027861474</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>19232</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11842</v>
+        <v>12559</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29739</v>
+        <v>31425</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03097794451298386</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01907418455433154</v>
+        <v>0.02022910016352548</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04790185486145213</v>
+        <v>0.05061789201166168</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1196,19 +1196,19 @@
         <v>10727</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6047</v>
+        <v>5928</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17356</v>
+        <v>18088</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01724146663749199</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009719188616684573</v>
+        <v>0.009528890454477666</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0278978197330098</v>
+        <v>0.0290738289786791</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1217,19 +1217,19 @@
         <v>29959</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20750</v>
+        <v>20802</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42318</v>
+        <v>41236</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02410250882348966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01669344035376407</v>
+        <v>0.01673549538741445</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03404560930005623</v>
+        <v>0.03317543772569068</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>601605</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>591098</v>
+        <v>589412</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>608995</v>
+        <v>608278</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9690220554870161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9520981451385482</v>
+        <v>0.9493821079883382</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9809258154456687</v>
+        <v>0.9797708998364744</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>832</v>
@@ -1267,19 +1267,19 @@
         <v>611412</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>604783</v>
+        <v>604051</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>616092</v>
+        <v>616211</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9827585333625081</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9721021802669902</v>
+        <v>0.9709261710213208</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9902808113833154</v>
+        <v>0.9904711095455223</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1361</v>
@@ -1288,19 +1288,19 @@
         <v>1213017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1200658</v>
+        <v>1201740</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1222226</v>
+        <v>1222174</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9758974911765104</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9659543906999437</v>
+        <v>0.9668245622743099</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9833065596462358</v>
+        <v>0.983264504612586</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>16366</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9824</v>
+        <v>9931</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25907</v>
+        <v>26190</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02342096645072374</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01405844903069301</v>
+        <v>0.01421248228424799</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03707614760191644</v>
+        <v>0.03748044033967425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>13081</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8099</v>
+        <v>8344</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19592</v>
+        <v>20606</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01784001846471011</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01104520122006431</v>
+        <v>0.01137939826785687</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02671836902590493</v>
+        <v>0.0281016471080758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1434,19 +1434,19 @@
         <v>29447</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20394</v>
+        <v>20746</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40448</v>
+        <v>39598</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02056326436498163</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01424126143370274</v>
+        <v>0.01448748140714968</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02824509673417969</v>
+        <v>0.02765198906909878</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>682397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>672856</v>
+        <v>672573</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>688939</v>
+        <v>688832</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9765790335492764</v>
+        <v>0.9765790335492762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9629238523980834</v>
+        <v>0.9625195596603257</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.985941550969307</v>
+        <v>0.985787517715752</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1115</v>
@@ -1484,19 +1484,19 @@
         <v>720183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>713672</v>
+        <v>712658</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>725165</v>
+        <v>724920</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9821599815352897</v>
+        <v>0.9821599815352899</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9732816309740949</v>
+        <v>0.9718983528919244</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9889547987799356</v>
+        <v>0.9886206017321433</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1762</v>
@@ -1505,19 +1505,19 @@
         <v>1402580</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1391579</v>
+        <v>1392429</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1411633</v>
+        <v>1411281</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9794367356350183</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9717549032658208</v>
+        <v>0.9723480109309013</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9857587385662971</v>
+        <v>0.9855125185928504</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>6348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2531</v>
+        <v>2684</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12594</v>
+        <v>12307</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01043506273869571</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004160348752895836</v>
+        <v>0.004412300637781049</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02070180852153501</v>
+        <v>0.02023061836443734</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1630,19 +1630,19 @@
         <v>5957</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3004</v>
+        <v>2725</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11143</v>
+        <v>11292</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.009794837301206687</v>
+        <v>0.009794837301206689</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004939828906510872</v>
+        <v>0.004481464827066286</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01832181546908097</v>
+        <v>0.01856666097074772</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1651,19 +1651,19 @@
         <v>12305</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7342</v>
+        <v>7277</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19781</v>
+        <v>19272</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01011500036263438</v>
+        <v>0.01011500036263439</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006035618218233019</v>
+        <v>0.005981849345242997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01626000309740034</v>
+        <v>0.01584187689861382</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>602009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>595763</v>
+        <v>596050</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>605826</v>
+        <v>605673</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9895649372613045</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9792981914784651</v>
+        <v>0.9797693816355622</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9958396512471042</v>
+        <v>0.9955876993622187</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>992</v>
@@ -1701,19 +1701,19 @@
         <v>602209</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>597023</v>
+        <v>596874</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>605162</v>
+        <v>605441</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9902051626987932</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.981678184530919</v>
+        <v>0.981433339029252</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9950601710934891</v>
+        <v>0.9955185351729336</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1647</v>
@@ -1722,19 +1722,19 @@
         <v>1204218</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1196742</v>
+        <v>1197251</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1209181</v>
+        <v>1209246</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9898849996373654</v>
+        <v>0.9898849996373656</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9837399969025996</v>
+        <v>0.9841581231013862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9939643817817668</v>
+        <v>0.994018150654757</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>1759</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4930</v>
+        <v>5141</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004321138935453688</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001228642078598069</v>
+        <v>0.001235967925208219</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01211051038610318</v>
+        <v>0.0126298971202109</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1847,19 +1847,19 @@
         <v>2715</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>844</v>
+        <v>978</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5991</v>
+        <v>5816</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.006214821876396611</v>
+        <v>0.006214821876396612</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001932149250726109</v>
+        <v>0.002239597590411954</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01371631813754058</v>
+        <v>0.01331453729783464</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1868,19 +1868,19 @@
         <v>4474</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2040</v>
+        <v>2019</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9009</v>
+        <v>8368</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005301341622370895</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002416899270510002</v>
+        <v>0.002393049700358979</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01067510125511169</v>
+        <v>0.009916310753919393</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>405321</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>402150</v>
+        <v>401939</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>406580</v>
+        <v>406577</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9956788610645463</v>
+        <v>0.9956788610645464</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9878894896138969</v>
+        <v>0.9873701028797892</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9987713579214018</v>
+        <v>0.9987640320747917</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>818</v>
@@ -1918,19 +1918,19 @@
         <v>434099</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>430823</v>
+        <v>430998</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>435970</v>
+        <v>435836</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9937851781236035</v>
+        <v>0.9937851781236036</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9862836818624595</v>
+        <v>0.9866854627021656</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9980678507492745</v>
+        <v>0.997760402409588</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1385</v>
@@ -1939,19 +1939,19 @@
         <v>839419</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>834884</v>
+        <v>835525</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>841853</v>
+        <v>841874</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9946986583776293</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9893248987448884</v>
+        <v>0.9900836892460806</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9975831007294901</v>
+        <v>0.9976069502996411</v>
       </c>
     </row>
     <row r="21">
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4574</v>
+        <v>3984</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002538371730701832</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009858050523563195</v>
+        <v>0.008585077494448373</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3605</v>
+        <v>3672</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001521338230057589</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00465606570346927</v>
+        <v>0.00474308907235016</v>
       </c>
     </row>
     <row r="23">
@@ -2119,7 +2119,7 @@
         <v>462835</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>459439</v>
+        <v>460029</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>464013</v>
@@ -2128,7 +2128,7 @@
         <v>0.9974616282692982</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9901419494764367</v>
+        <v>0.9914149225055509</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -2140,7 +2140,7 @@
         <v>773033</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>770606</v>
+        <v>770539</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>774211</v>
@@ -2149,7 +2149,7 @@
         <v>0.9984786617699424</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9953439342965308</v>
+        <v>0.9952569109276501</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         <v>79072</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61299</v>
+        <v>60718</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>107396</v>
+        <v>104110</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02240045856737146</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0173654670732716</v>
+        <v>0.01720105046248395</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03042448393576092</v>
+        <v>0.02949355497304706</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -2265,19 +2265,19 @@
         <v>55125</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41873</v>
+        <v>41280</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70772</v>
+        <v>71606</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0147910740461344</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01123533471323783</v>
+        <v>0.01107604936178827</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01898947263148371</v>
+        <v>0.01921320309891753</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>126</v>
@@ -2286,19 +2286,19 @@
         <v>134197</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>112698</v>
+        <v>111445</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>165387</v>
+        <v>163330</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01849247488919672</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01552988884242722</v>
+        <v>0.01535720644111731</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02279040271801209</v>
+        <v>0.0225069527405774</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>3450847</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3422523</v>
+        <v>3425809</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3468620</v>
+        <v>3469201</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9775995414326285</v>
+        <v>0.9775995414326284</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9695755160642391</v>
+        <v>0.9705064450269529</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9826345329267283</v>
+        <v>0.982798949537516</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5285</v>
@@ -2336,19 +2336,19 @@
         <v>3671806</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3656159</v>
+        <v>3655325</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3685058</v>
+        <v>3685651</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9852089259538656</v>
+        <v>0.9852089259538657</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9810105273685163</v>
+        <v>0.9807867969010827</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9887646652867622</v>
+        <v>0.9889239506382119</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8597</v>
@@ -2357,19 +2357,19 @@
         <v>7122653</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7091463</v>
+        <v>7093520</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7144152</v>
+        <v>7145405</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9815075251108033</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9772095972819869</v>
+        <v>0.9774930472594223</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9844701111575729</v>
+        <v>0.9846427935588827</v>
       </c>
     </row>
     <row r="27">
